--- a/pythonSDK/cubagem2.xlsx
+++ b/pythonSDK/cubagem2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,14 +463,14 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Computadores</t>
+          <t>Ar Condicionado</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.76096</v>
+        <v>19.853712</v>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
@@ -481,14 +481,14 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Eletrodomésticos</t>
+          <t>Computadores</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.882784</v>
+        <v>4.76096</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -499,14 +499,14 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Eletrônicos</t>
+          <t>Eletrodomésticos</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.6255</v>
+        <v>1.882784</v>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -517,14 +517,14 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Ferramentas</t>
+          <t>Eletrônicos</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.136128</v>
+        <v>2.6255</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -535,14 +535,14 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Livros</t>
+          <t>Ferramentas</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.12</v>
+        <v>0.136128</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -553,11 +553,11 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Maquinário</t>
+          <t>Livros</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.06875000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -571,11 +571,11 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Materiais elétricos</t>
+          <t>Maquinário</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.109956</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -589,14 +589,14 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Material de Escritório</t>
+          <t>Materiais elétricos</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.701928</v>
+        <v>0.109956</v>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -607,14 +607,14 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Mobília</t>
+          <t>Material de Escritório</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>571.70575</v>
+        <v>4.701928</v>
       </c>
       <c r="D10" t="n">
-        <v>1309</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -625,14 +625,14 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Mobília</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>27.206936</v>
+        <v>571.668886</v>
       </c>
       <c r="D11" t="n">
-        <v>105</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="12">
@@ -643,14 +643,14 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Periféricos de Informática</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.544</v>
+        <v>26.846936</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
@@ -661,14 +661,14 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Transporte Particular</t>
+          <t>Periféricos de Informática</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.034</v>
+        <v>0.544</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -679,32 +679,32 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Vidraria</t>
+          <t>Transporte Particular</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.301952</v>
+        <v>0.034</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Ar Condicionado</t>
+          <t>Vidraria</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.045264</v>
+        <v>0.301952</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -715,14 +715,14 @@
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Computadores</t>
+          <t>Ar Condicionado</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13.607344</v>
+        <v>16.152456</v>
       </c>
       <c r="D16" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
@@ -733,14 +733,14 @@
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Eletrodomésticos</t>
+          <t>Computadores</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8.239568</v>
+        <v>13.607344</v>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18">
@@ -751,14 +751,14 @@
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Eletrônicos</t>
+          <t>Eletrodomésticos</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>26.20633</v>
+        <v>8.239568</v>
       </c>
       <c r="D18" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -769,14 +769,14 @@
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Ferramentas</t>
+          <t>Eletrônicos</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.273606</v>
+        <v>26.32633</v>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
@@ -787,14 +787,14 @@
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Livros</t>
+          <t>Ferramentas</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.565824</v>
+        <v>2.273606</v>
       </c>
       <c r="D20" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -805,14 +805,14 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Maquinário</t>
+          <t>Livros</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>93.317637</v>
+        <v>0.565824</v>
       </c>
       <c r="D21" t="n">
-        <v>151</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -823,14 +823,14 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Maquinário Pesado</t>
+          <t>Maquinário</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.46412</v>
+        <v>93.317637</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
@@ -841,14 +841,14 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Maquinário Sensível</t>
+          <t>Maquinário Pesado</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.274304</v>
+        <v>1.46412</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -859,14 +859,14 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Materiais elétricos</t>
+          <t>Maquinário Sensível</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.817852</v>
+        <v>0.274304</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -877,14 +877,14 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Material de Escritório</t>
+          <t>Materiais elétricos</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7.047371</v>
+        <v>0.817852</v>
       </c>
       <c r="D25" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -895,14 +895,14 @@
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Mobília</t>
+          <t>Material de Escritório</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>552.709338</v>
+        <v>7.047371</v>
       </c>
       <c r="D26" t="n">
-        <v>1193</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
@@ -913,14 +913,14 @@
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Mobília</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>731.8399280000001</v>
+        <v>555.623498</v>
       </c>
       <c r="D27" t="n">
-        <v>475</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="28">
@@ -931,14 +931,14 @@
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Periféricos de Informática</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.912935</v>
+        <v>731.8399280000001</v>
       </c>
       <c r="D28" t="n">
-        <v>21</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29">
@@ -949,14 +949,14 @@
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Reagentes</t>
+          <t>Periféricos de Informática</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10.506306</v>
+        <v>1.912935</v>
       </c>
       <c r="D29" t="n">
-        <v>179</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -967,14 +967,14 @@
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Transporte Particular</t>
+          <t>Reagentes</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.514475</v>
+        <v>10.506306</v>
       </c>
       <c r="D30" t="n">
-        <v>19</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31">
@@ -985,32 +985,32 @@
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Vidraria</t>
+          <t>Transporte Particular</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15.324944</v>
+        <v>2.514475</v>
       </c>
       <c r="D31" t="n">
-        <v>148</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Computadores</t>
+          <t>Vidraria</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>12.453464</v>
+        <v>15.324944</v>
       </c>
       <c r="D32" t="n">
-        <v>104</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33">
@@ -1021,14 +1021,14 @@
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Eletrodomésticos</t>
+          <t>Ar Condicionado</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.24</v>
+        <v>9.177708000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
@@ -1039,14 +1039,14 @@
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Eletrônicos</t>
+          <t>Computadores</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>12.698566</v>
+        <v>12.453464</v>
       </c>
       <c r="D34" t="n">
-        <v>210</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35">
@@ -1057,11 +1057,11 @@
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Ferramentas</t>
+          <t>Eletrodomésticos</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.06467400000000001</v>
+        <v>0.24</v>
       </c>
       <c r="D35" t="n">
         <v>2</v>
@@ -1075,14 +1075,14 @@
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Livros</t>
+          <t>Eletrônicos</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.24</v>
+        <v>12.698566</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37">
@@ -1093,14 +1093,14 @@
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Maquinário</t>
+          <t>Ferramentas</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.25428</v>
+        <v>0.06467400000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1111,14 +1111,14 @@
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Materiais elétricos</t>
+          <t>Livros</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.17707</v>
+        <v>0.24</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1129,14 +1129,14 @@
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>Material de Escritório</t>
+          <t>Maquinário</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>109.565079</v>
+        <v>0.25428</v>
       </c>
       <c r="D39" t="n">
-        <v>274</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1147,14 +1147,14 @@
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Mobília</t>
+          <t>Materiais elétricos</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>205.244884</v>
+        <v>0.17707</v>
       </c>
       <c r="D40" t="n">
-        <v>384</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Material de Escritório</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>11.979093</v>
+        <v>109.565079</v>
       </c>
       <c r="D41" t="n">
-        <v>58</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42">
@@ -1183,14 +1183,14 @@
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Periféricos de Informática</t>
+          <t>Mobília</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.898213</v>
+        <v>205.244884</v>
       </c>
       <c r="D42" t="n">
-        <v>20</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Transporte Particular</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.12</v>
+        <v>11.979093</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44">
@@ -1219,29 +1219,29 @@
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Vidraria</t>
+          <t>Periféricos de Informática</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.62</v>
+        <v>1.898213</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>Eletrônicos</t>
+          <t>Transporte Particular</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1250,16 +1250,16 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>Ferramentas</t>
+          <t>Vidraria</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="D46" t="n">
         <v>3</v>
@@ -1273,29 +1273,29 @@
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>Mobília</t>
+          <t>Ar Condicionado</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>23.870035</v>
+        <v>0.12492</v>
       </c>
       <c r="D47" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Eletrônicos</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.128</v>
+        <v>0.03</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1304,36 +1304,126 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>Computadores</t>
+          <t>Ferramentas</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6.96</v>
+        <v>22.928</v>
       </c>
       <c r="D49" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>Materiais elétricos</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D50" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>Mobília</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>23.870035</v>
+      </c>
+      <c r="D51" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
           <t>V</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>Ar Condicionado</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.54208</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>Computadores</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="D54" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
         <is>
           <t>Mobília</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C55" t="n">
         <v>36.195091</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D55" t="n">
         <v>115</v>
       </c>
     </row>
